--- a/local_stiffness/data/1698205438_joint_6_1_0.69_data.xlsx
+++ b/local_stiffness/data/1698205438_joint_6_1_0.69_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gal65\masters\STM32_snake\local_stiffness\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C966EBA9-9916-443E-A328-A5F850C068A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A068AE-E271-46F3-A258-067964FB64BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="37425" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -98,36 +97,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -4793,7 +4762,7 @@
   <dimension ref="A1:C290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4810,3181 +4779,3181 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>0.12013196945190401</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>-1.3809198477317401E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>0.124681949615478</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>-1.3809198477317401E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>0.124681949615478</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>-1.3809198477317401E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>0.124681949615478</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>-1.3809198477317401E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>0.124681949615478</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>-1.3809198477317401E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>0.124681949615478</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>-1.3809198477317401E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>0.124681949615478</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>-1.3809198477317401E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>0.201925754547119</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>-1.3809198477317401E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>0.27480554580688399</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>1.70693200845045E-2</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>-3.6824529272846997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>0.34874129295349099</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>5.68977336150151E-2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>-4.6030661591059202E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>0.41994237899780201</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>9.1036373784024197E-2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>-7.5183413932063695E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>0.49334096908569303</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>0.278798894713574</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>-7.3649058545695006E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>0.56622219085693304</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>0.426733002112613</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>-7.6717769318432397E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>0.63373184204101496</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>0.51207960253513596</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>-7.6717769318432397E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>0.70633649826049805</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>0.58035688287315401</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>-8.8992612409381097E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>0.78256916999816895</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>0.64863416321117195</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>-8.5923901636644595E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>0.85558366775512695</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>0.69415235010318399</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>-9.2061323182118501E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>0.91941070556640603</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>0.72829099027219302</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>-8.1320835477537601E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>0.99174571037292403</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>0.75105008371819904</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>-7.2114703159326304E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>1.0648279190063401</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>0.75105008371819904</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>-6.90459923865889E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>1.1377863883972099</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>0.73967053699519603</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>-5.8305504682008E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>1.2107708454132</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>0.69415235010318399</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>-3.8358884659215699E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>1.28217053413391</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>0.63156484312666805</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>-3.0687107727372199E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>1.5647897720336901</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>0.33569662832858899</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>-6.1374215454748004E-3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>1.63793420791625</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>0.26172957462906898</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>1.7095890045166</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>0.176382974206546</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>1.78157210350036</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>9.1036373784024197E-2</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>1.85530138015747</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>1.70693200845045E-2</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>1.92777347564697</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>-6.2587506976516605E-2</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>2.6084041568266901E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>1.9995641708373999</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>-0.142244334037537</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>2.91527523410041E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>2.07158994674682</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>-0.22190116109855901</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>3.6824529272847302E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>2.14402747154235</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>-0.29017844143657701</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>6.9045992386588803E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>2.2167296409606898</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>-0.36414549513609601</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>6.7511637000220198E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>2.2852487564086901</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>-0.44380232219711802</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>6.2908570841114203E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>2.3634858131408598</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>-0.51776937589663696</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>7.2114703159326096E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>2.4352049827575599</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>-0.59742620295765902</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>6.2908570841114203E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>2.50811338424682</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>-0.66570348329567697</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>6.5977281613851496E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>2.5795640945434499</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>-0.705531896826187</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>8.1320835477537906E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>2.6439976692199698</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>-0.72829099027219302</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>8.8992612409381194E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>2.78929495811462</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>-0.73398076363369502</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>8.8992612409381194E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>2.8623995780944802</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>-0.73398076363369502</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>7.8252124704800696E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>2.9303703308105402</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>-0.69415235010318399</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>4.2961950818321902E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>3.01002645492553</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>-0.63725461648816895</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>9.2061323182118394E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>3.0820055007934499</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>-0.568977336150151</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>3.1499898433685298</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>-0.495010282450631</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>-2.3015330795529601E-2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="A48">
         <v>3.2268996238708398</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>-0.426733002112613</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>-3.5290173886479197E-2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="A49">
         <v>3.3001902103424001</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>-0.347076175051592</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>-3.2221463113741799E-2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>3.3721666336059499</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>-0.25035002790606598</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>-2.76183969546357E-2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="A51">
         <v>3.4446272850036599</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>-0.16500342748354299</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>-2.45496861818983E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="A52">
         <v>3.51725721359252</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52">
         <v>-8.5346600422522706E-2</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>-3.8358884659215699E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="A53">
         <v>3.5882542133331299</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
         <v>0</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>-3.5290173886479197E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="A54">
         <v>3.6616113185882502</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54">
         <v>7.9656827061021201E-2</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>-3.8358884659215699E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="A55">
         <v>3.73370909690856</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
         <v>0.16500342748354299</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>-4.1427595431953103E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="A56">
         <v>3.8075108528137198</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
         <v>0.23897048118306299</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>-5.2168083136534003E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="A57">
         <v>3.8803074359893799</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <v>0.31862730824408397</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>-5.6771149295639298E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="A58">
         <v>4.0933139324188197</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58">
         <v>0.54052846934264298</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>-8.1320835477537601E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="A59">
         <v>4.1706264019012398</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <v>0.60311597631916003</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>-9.0526967795749799E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="A60">
         <v>4.3038780689239502</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60">
         <v>0.705531896826187</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>-9.3595678568487203E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="A61">
         <v>4.4486107826232901</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
         <v>0.75105008371819904</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>-7.3649058545695006E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="A62">
         <v>4.5231590270995996</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
         <v>0.75105008371819904</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>-6.7511637000220198E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="A63">
         <v>4.5951144695281902</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
         <v>0.72260121691069201</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>-5.2168083136534003E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="A64">
         <v>4.7406861782073904</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64">
         <v>0.60311597631916003</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>-2.91527523410035E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+      <c r="A65">
         <v>4.8842921257018999</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
         <v>0.44949209555861902</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>-1.3809198477317401E-2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="A66">
         <v>4.9577367305755597</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66">
         <v>0.37552504185909902</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>-6.1374215454748004E-3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+      <c r="A67">
         <v>5.0309703350067103</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67">
         <v>0.29586821479807801</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="A68">
         <v>5.1029901504516602</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68">
         <v>0.22759093446006001</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+      <c r="A69">
         <v>5.3213319778442303</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69">
         <v>-2.8448866807507502E-2</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>1.8412264636423599E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+      <c r="A70">
         <v>5.3945887088775599</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70">
         <v>-0.102415920507027</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70">
         <v>3.2221463113741397E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+      <c r="A71">
         <v>5.4672544002532897</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71">
         <v>-0.182072747568048</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
         <v>3.5290173886478697E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+      <c r="A72">
         <v>5.5384752750396702</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72">
         <v>-0.25603980126756798</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72">
         <v>5.5236793909270998E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+      <c r="A73">
         <v>5.6099579334258998</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73">
         <v>-0.31862730824408397</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73">
         <v>7.3649058545694701E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+      <c r="A74">
         <v>5.6831984519958496</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74">
         <v>-0.39828413530510598</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74">
         <v>6.5977281613851496E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+      <c r="A75">
         <v>5.9022560119628897</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75">
         <v>-0.63725461648816895</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75">
         <v>6.2908570841114203E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+      <c r="A76">
         <v>5.9743785858154297</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76">
         <v>-0.69415235010318399</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76">
         <v>7.3649058545694701E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+      <c r="A77">
         <v>6.0404772758483798</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77">
         <v>-0.72260121691069201</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77">
         <v>8.8992612409381194E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+      <c r="A78">
         <v>6.1130428314208896</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78">
         <v>-0.73398076363369502</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78">
         <v>9.2061323182118404E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+      <c r="A79">
         <v>6.1806757450103698</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79">
         <v>-0.73398076363369502</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79">
         <v>9.0526967795749799E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+      <c r="A80">
         <v>6.2523252964019704</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80">
         <v>-0.73398076363369502</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80">
         <v>8.2855190863906594E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+      <c r="A81">
         <v>6.4006385803222603</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81">
         <v>-0.66570348329567697</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81">
         <v>2.4549686181898199E-2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+      <c r="A82">
         <v>6.4692027568817103</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82">
         <v>-0.59742620295765902</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82">
         <v>3.0687107727372801E-3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+      <c r="A83">
         <v>6.5406403541564897</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83">
         <v>-0.53483869598114198</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+      <c r="A84">
         <v>6.6186420917510898</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84">
         <v>-0.46087164228162197</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84">
         <v>-2.91527523410035E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+      <c r="A85">
         <v>6.6907930374145499</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85">
         <v>-0.38690458858210203</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85">
         <v>-3.6824529272846997E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+      <c r="A86">
         <v>6.7631249427795401</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86">
         <v>-0.30155798815958001</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86">
         <v>-2.91527523410035E-2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+      <c r="A87">
         <v>6.8355584144592196</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87">
         <v>-0.216211387737057</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87">
         <v>-2.76183969546357E-2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+      <c r="A88">
         <v>6.9731566905975297</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88">
         <v>-4.5518186892012098E-2</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88">
         <v>-4.1427595431953103E-2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+      <c r="A89">
         <v>7.0449407100677401</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89">
         <v>2.8448866807507502E-2</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89">
         <v>-3.6824529272846997E-2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+      <c r="A90">
         <v>7.1161158084869296</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90">
         <v>0.11379546723003001</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90">
         <v>-4.44963062046905E-2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+      <c r="A91">
         <v>7.1894333362579301</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91">
         <v>0.19345229429105101</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91">
         <v>-4.7565016977427897E-2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+      <c r="A92">
         <v>7.2584803104400599</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92">
         <v>0.27310912135207199</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92">
         <v>-5.3702438522901901E-2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+      <c r="A93">
         <v>7.3336248397827104</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93">
         <v>0.34138640169008999</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93">
         <v>-5.8305504682008E-2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+      <c r="A94">
         <v>7.4071977138519198</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94">
         <v>0.426733002112613</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94">
         <v>-6.90459923865889E-2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+      <c r="A95">
         <v>7.4793937206268302</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95">
         <v>0.495010282450631</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95">
         <v>-7.6717769318432397E-2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+      <c r="A96">
         <v>7.5511837005615199</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96">
         <v>0.55759778942714799</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96">
         <v>-9.2061323182118501E-2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+      <c r="A97">
         <v>7.7588875293731601</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97">
         <v>0.711221670187689</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97">
         <v>-9.0526967795749799E-2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+      <c r="A98">
         <v>7.83178639411926</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98">
         <v>0.74536031035669803</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98">
         <v>-7.2114703159326304E-2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+      <c r="A99">
         <v>7.9780771732330296</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99">
         <v>0.74536031035669803</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99">
         <v>-6.5977281613851496E-2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+      <c r="A100">
         <v>8.0497570037841797</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100">
         <v>0.711221670187689</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100">
         <v>-4.2961950818321798E-2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+      <c r="A101">
         <v>8.1213760375976491</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101">
         <v>0.64294438984967095</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101">
         <v>-3.0687107727372199E-2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+      <c r="A102">
         <v>8.2705235481262207</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102">
         <v>0.50070005581213295</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102">
         <v>-2.3015330795529601E-2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+      <c r="A103">
         <v>8.3445420265197701</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103">
         <v>0.421043228751112</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103">
         <v>-9.2061323182122106E-3</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+      <c r="A104">
         <v>8.4176909923553396</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104">
         <v>0.34138640169008999</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104">
         <v>-3.0687107727365099E-3</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+      <c r="A105">
         <v>8.4912683963775599</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105">
         <v>0.26172957462906898</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+      <c r="A106">
         <v>8.5643897056579501</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106">
         <v>0.18776252092954901</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+      <c r="A107">
         <v>8.7108340263366699</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107">
         <v>1.70693200845045E-2</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107">
         <v>1.8412264636423599E-2</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+      <c r="A108">
         <v>8.7838134765625</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108">
         <v>-5.68977336150151E-2</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108">
         <v>3.0687107727372799E-2</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+      <c r="A109">
         <v>8.8549091815948398</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109">
         <v>-0.142244334037537</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109">
         <v>3.3755818500110099E-2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+      <c r="A110">
         <v>8.9921815395355207</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110">
         <v>-0.278798894713574</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110">
         <v>6.7511637000220198E-2</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+      <c r="A111">
         <v>9.06508111953735</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111">
         <v>-0.352765948413093</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111">
         <v>7.3649058545694701E-2</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+      <c r="A112">
         <v>9.2116920948028493</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112">
         <v>-0.51207960253513596</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112">
         <v>7.3649058545694701E-2</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+      <c r="A113">
         <v>9.2845196723937899</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113">
         <v>-0.58035688287315401</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113">
         <v>6.7511637000220198E-2</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+      <c r="A114">
         <v>9.4303877353668195</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114">
         <v>-0.69984212346468599</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114">
         <v>7.9786480091169301E-2</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+      <c r="A115">
         <v>9.4993903636932302</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115">
         <v>-0.72829099027219302</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115">
         <v>9.0526967795749799E-2</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+      <c r="A116">
         <v>9.5759143829345703</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116">
         <v>-0.73398076363369502</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116">
         <v>9.0526967795749799E-2</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
+      <c r="A117">
         <v>9.7931430339813197</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117">
         <v>-0.69415235010318399</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117">
         <v>4.9099372363796502E-2</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+      <c r="A118">
         <v>9.8662254810333199</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118">
         <v>-0.63725461648816895</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118">
         <v>9.2061323182118394E-3</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
+      <c r="A119">
         <v>9.92948174476623</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119">
         <v>-0.57466710951165301</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+      <c r="A120">
         <v>10.0035512447357</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120">
         <v>-0.495010282450631</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120">
         <v>-1.99466200227922E-2</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
+      <c r="A121">
         <v>10.0756118297576</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121">
         <v>-0.426733002112613</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121">
         <v>-3.5290173886479197E-2</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+      <c r="A122">
         <v>10.213997364044101</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122">
         <v>-0.284488668075075</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122">
         <v>-2.6084041568267002E-2</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
+      <c r="A123">
         <v>10.2866177558898</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123">
         <v>-0.20483184101405399</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123">
         <v>-2.3015330795529601E-2</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
+      <c r="A124">
         <v>10.350015401840199</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124">
         <v>-0.12517501395303299</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124">
         <v>-2.6084041568267002E-2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
+      <c r="A125">
         <v>10.4236063957214</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125">
         <v>-3.9828413530510601E-2</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125">
         <v>-3.5290173886479197E-2</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
+      <c r="A126">
         <v>10.564484596252401</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126">
         <v>0.119485240591531</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126">
         <v>-3.8358884659215699E-2</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
+      <c r="A127">
         <v>10.640255212783799</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127">
         <v>0.20483184101405399</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127">
         <v>-4.44963062046905E-2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
+      <c r="A128">
         <v>10.7150838375091</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128">
         <v>0.27310912135207199</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128">
         <v>-5.2168083136534003E-2</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
+      <c r="A129">
         <v>10.7870159149169</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129">
         <v>0.347076175051592</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129">
         <v>-5.8305504682008E-2</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
+      <c r="A130">
         <v>10.860057115554801</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130">
         <v>0.421043228751112</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130">
         <v>-7.2114703159326304E-2</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
+      <c r="A131">
         <v>10.933932065963701</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131">
         <v>0.48932050908913</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131">
         <v>-8.1320835477537601E-2</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
+      <c r="A132">
         <v>11.0076622962951</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132">
         <v>0.55190801606564599</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132">
         <v>-8.4389546250275005E-2</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
+      <c r="A133">
         <v>11.0811741352081</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133">
         <v>0.61449552304216304</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133">
         <v>-8.4389546250275005E-2</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
+      <c r="A134">
         <v>11.2258701324462</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134">
         <v>0.69415235010318399</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134">
         <v>-7.05803477729567E-2</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
+      <c r="A135">
         <v>11.2974698543548</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135">
         <v>0.705531896826187</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135">
         <v>-6.5977281613851496E-2</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
+      <c r="A136">
         <v>11.3714287281036</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136">
         <v>0.705531896826187</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136">
         <v>-6.1374215454746299E-2</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
+      <c r="A137">
         <v>11.4444725513458</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137">
         <v>0.69415235010318399</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137">
         <v>-5.0633727750165301E-2</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
+      <c r="A138">
         <v>11.5167250633239</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138">
         <v>0.64294438984967095</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138">
         <v>-3.5290173886479197E-2</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
+      <c r="A139">
         <v>11.5893211364746</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139">
         <v>0.58604665623465602</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139">
         <v>-2.45496861818983E-2</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
+      <c r="A140">
         <v>11.6613359451293</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140">
         <v>0.51207960253513596</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140">
         <v>-2.45496861818983E-2</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
+      <c r="A141">
         <v>11.734420299530001</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141">
         <v>0.44949209555861902</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141">
         <v>-1.2274843090948701E-2</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
+      <c r="A142">
         <v>11.8806295394897</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142">
         <v>0.29586821479807801</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
+      <c r="A143">
         <v>11.9547023773193</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143">
         <v>0.22759093446006001</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
+      <c r="A144">
         <v>12.0286312103271</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144">
         <v>0.14793410739903901</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
+      <c r="A145">
         <v>12.174741744995099</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145">
         <v>-2.2759093446006001E-2</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
+      <c r="A146">
         <v>12.3211956024169</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146">
         <v>-0.182072747568048</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146">
         <v>3.2221463113741397E-2</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
+      <c r="A147">
         <v>12.394562005996701</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147">
         <v>-0.25603980126756798</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147">
         <v>4.9099372363796502E-2</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
+      <c r="A148">
         <v>12.467200517654399</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148">
         <v>-0.31293753488258302</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148">
         <v>6.9045992386588803E-2</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
+      <c r="A149">
         <v>12.6130781173706</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149">
         <v>-0.43811254883561601</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149">
         <v>7.6717769318431994E-2</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
+      <c r="A150">
         <v>12.685839414596501</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150">
         <v>-0.51207960253513596</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150">
         <v>7.0580347772957394E-2</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
+      <c r="A151">
         <v>12.8317317962646</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151">
         <v>-0.64863416321117195</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151">
         <v>7.0580347772957394E-2</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
+      <c r="A152">
         <v>12.9771444797515</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152">
         <v>-0.69984212346468599</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152">
         <v>8.8992612409381194E-2</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
+      <c r="A153">
         <v>13.1231806278228</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153">
         <v>-0.69984212346468599</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153">
         <v>7.8252124704800696E-2</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
+      <c r="A154">
         <v>13.195692062377899</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154">
         <v>-0.66570348329567697</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154">
         <v>4.75650169774278E-2</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
+      <c r="A155">
         <v>13.259859800338701</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155">
         <v>-0.61449552304216304</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155">
         <v>9.2061323182118394E-3</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
+      <c r="A156">
         <v>13.342157125472999</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156">
         <v>-0.563287562788649</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156">
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
+      <c r="A157">
         <v>13.409745454788199</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157">
         <v>-0.51776937589663696</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157">
         <v>-1.5343553863686099E-2</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
+      <c r="A158">
         <v>13.4860613346099</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158">
         <v>-0.45518186892012102</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C158">
         <v>-3.0687107727372199E-2</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
+      <c r="A159">
         <v>13.557837486266999</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159">
         <v>-0.38121481522060102</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159">
         <v>-3.0687107727372199E-2</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
+      <c r="A160">
         <v>13.6292707920074</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160">
         <v>-0.29586821479807801</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160">
         <v>-2.45496861818983E-2</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
+      <c r="A161">
         <v>13.699926614761299</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161">
         <v>-0.216211387737057</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161">
         <v>-2.45496861818983E-2</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
+      <c r="A162">
         <v>13.7745993137359</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162">
         <v>-0.12517501395303299</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162">
         <v>-2.91527523410035E-2</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
+      <c r="A163">
         <v>13.8477365970611</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163">
         <v>-5.1207960253513603E-2</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163">
         <v>-3.5290173886479197E-2</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
+      <c r="A164">
         <v>13.920745372772201</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164">
         <v>2.8448866807507502E-2</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C164">
         <v>-3.8358884659215699E-2</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
+      <c r="A165">
         <v>13.9943244457244</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165">
         <v>0.119485240591531</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C165">
         <v>-3.8358884659215699E-2</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
+      <c r="A166">
         <v>14.2134532928466</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166">
         <v>0.347076175051592</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C166">
         <v>-5.6771149295639298E-2</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
+      <c r="A167">
         <v>14.286641359329201</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167">
         <v>0.426733002112613</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C167">
         <v>-6.90459923865889E-2</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
+      <c r="A168">
         <v>14.3586857318878</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168">
         <v>0.48363073572762799</v>
       </c>
-      <c r="C168" s="1">
+      <c r="C168">
         <v>-7.9786480091168899E-2</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
+      <c r="A169">
         <v>14.429680109024</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169">
         <v>0.54621824270414499</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C169">
         <v>-8.8992612409381097E-2</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
+      <c r="A170">
         <v>14.5028853416442</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170">
         <v>0.60880574968066203</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C170">
         <v>-7.9786480091168899E-2</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
+      <c r="A171">
         <v>14.571380138397201</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171">
         <v>0.65432393657267396</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C171">
         <v>-8.2855190863906303E-2</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
+      <c r="A172">
         <v>14.6462197303771</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172">
         <v>0.68846257674168299</v>
       </c>
-      <c r="C172" s="1">
+      <c r="C172">
         <v>-7.05803477729567E-2</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
+      <c r="A173">
         <v>14.7177565097808</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173">
         <v>0.705531896826187</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C173">
         <v>-6.5977281613851496E-2</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
+      <c r="A174">
         <v>14.791679382324199</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174">
         <v>0.711221670187689</v>
       </c>
-      <c r="C174" s="1">
+      <c r="C174">
         <v>-6.1374215454746299E-2</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
+      <c r="A175">
         <v>14.859820127487099</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175">
         <v>0.69984212346468599</v>
       </c>
-      <c r="C175" s="1">
+      <c r="C175">
         <v>-5.2168083136534003E-2</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
+      <c r="A176">
         <v>14.932115316390901</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176">
         <v>0.65432393657267396</v>
       </c>
-      <c r="C176" s="1">
+      <c r="C176">
         <v>-3.2221463113741799E-2</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
+      <c r="A177">
         <v>15.0104370117187</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177">
         <v>0.59173642959615702</v>
       </c>
-      <c r="C177" s="1">
+      <c r="C177">
         <v>-2.45496861818983E-2</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
+      <c r="A178">
         <v>15.0833177566528</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178">
         <v>0.52914892261963997</v>
       </c>
-      <c r="C178" s="1">
+      <c r="C178">
         <v>-2.1480975409160899E-2</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
+      <c r="A179">
         <v>15.228878259658799</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179">
         <v>0.38121481522060102</v>
       </c>
-      <c r="C179" s="1">
+      <c r="C179">
         <v>-3.0687107727365099E-3</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
+      <c r="A180">
         <v>15.3018615245819</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180">
         <v>0.30724776152108102</v>
       </c>
-      <c r="C180" s="1">
+      <c r="C180">
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
+      <c r="A181">
         <v>15.374747991561801</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181">
         <v>0.23328070782156199</v>
       </c>
-      <c r="C181" s="1">
+      <c r="C181">
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
+      <c r="A182">
         <v>15.448582172393699</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182">
         <v>0.15362388076054001</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C182">
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
+      <c r="A183">
         <v>15.591924667358301</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183">
         <v>-1.1379546723003E-2</v>
       </c>
-      <c r="C183" s="1">
+      <c r="C183">
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
+      <c r="A184">
         <v>15.660337448120099</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184">
         <v>-8.5346600422522706E-2</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C184">
         <v>2.91527523410041E-2</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
+      <c r="A185">
         <v>15.8103532791137</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185">
         <v>-0.23897048118306299</v>
       </c>
-      <c r="C185" s="1">
+      <c r="C185">
         <v>4.2961950818321902E-2</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
+      <c r="A186">
         <v>15.8832612037658</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186">
         <v>-0.29586821479807801</v>
       </c>
-      <c r="C186" s="1">
+      <c r="C186">
         <v>6.9045992386588803E-2</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
+      <c r="A187">
         <v>15.955650806427</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187">
         <v>-0.358455721774595</v>
       </c>
-      <c r="C187" s="1">
+      <c r="C187">
         <v>6.7511637000220198E-2</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
+      <c r="A188">
         <v>16.029218196868801</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188">
         <v>-0.426733002112613</v>
       </c>
-      <c r="C188" s="1">
+      <c r="C188">
         <v>7.3649058545694701E-2</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
+      <c r="A189">
         <v>16.102631568908599</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189">
         <v>-0.50070005581213295</v>
       </c>
-      <c r="C189" s="1">
+      <c r="C189">
         <v>7.2114703159326096E-2</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
+      <c r="A190">
         <v>16.175529241561801</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190">
         <v>-0.57466710951165301</v>
       </c>
-      <c r="C190" s="1">
+      <c r="C190">
         <v>6.7511637000220198E-2</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
+      <c r="A191">
         <v>16.248400926589898</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191">
         <v>-0.64294438984967095</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C191">
         <v>6.9045992386588803E-2</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
+      <c r="A192">
         <v>16.321198463439899</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192">
         <v>-0.68277280338018098</v>
       </c>
-      <c r="C192" s="1">
+      <c r="C192">
         <v>8.1320835477537906E-2</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
+      <c r="A193">
         <v>16.394631862640299</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193">
         <v>-0.69984212346468599</v>
       </c>
-      <c r="C193" s="1">
+      <c r="C193">
         <v>8.5923901636643901E-2</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
+      <c r="A194">
         <v>16.466785192489599</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194">
         <v>-0.69984212346468599</v>
       </c>
-      <c r="C194" s="1">
+      <c r="C194">
         <v>8.7458257023012506E-2</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
+      <c r="A195">
         <v>16.535015344619701</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195">
         <v>-0.69984212346468599</v>
       </c>
-      <c r="C195" s="1">
+      <c r="C195">
         <v>8.1320835477537906E-2</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
+      <c r="A196">
         <v>16.606549501419</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196">
         <v>-0.67708303001867998</v>
       </c>
-      <c r="C196" s="1">
+      <c r="C196">
         <v>5.8305504682008298E-2</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
+      <c r="A197">
         <v>16.683710098266602</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197">
         <v>-0.62587506976516605</v>
       </c>
-      <c r="C197" s="1">
+      <c r="C197">
         <v>1.6877909250055001E-2</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
+      <c r="A198">
         <v>16.755734443664501</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198">
         <v>-0.568977336150151</v>
       </c>
-      <c r="C198" s="1">
+      <c r="C198">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
+      <c r="A199">
         <v>16.8244049549102</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199">
         <v>-0.51776937589663696</v>
       </c>
-      <c r="C199" s="1">
+      <c r="C199">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
+      <c r="A200">
         <v>16.902067899703901</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200">
         <v>-0.46087164228162197</v>
       </c>
-      <c r="C200" s="1">
+      <c r="C200">
         <v>-2.91527523410035E-2</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
+      <c r="A201">
         <v>16.974706649780199</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B201">
         <v>-0.39259436194360398</v>
       </c>
-      <c r="C201" s="1">
+      <c r="C201">
         <v>-3.5290173886479197E-2</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
+      <c r="A202">
         <v>17.048406362533498</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202">
         <v>-0.31293753488258302</v>
       </c>
-      <c r="C202" s="1">
+      <c r="C202">
         <v>-2.91527523410035E-2</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
+      <c r="A203">
         <v>17.1199212074279</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203">
         <v>-0.23328070782156199</v>
       </c>
-      <c r="C203" s="1">
+      <c r="C203">
         <v>-2.76183969546357E-2</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
+      <c r="A204">
         <v>17.1917853355407</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B204">
         <v>-0.142244334037537</v>
       </c>
-      <c r="C204" s="1">
+      <c r="C204">
         <v>-2.3015330795529601E-2</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
+      <c r="A205">
         <v>17.2647171020507</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B205">
         <v>-6.2587506976516605E-2</v>
       </c>
-      <c r="C205" s="1">
+      <c r="C205">
         <v>-3.8358884659215699E-2</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
+      <c r="A206">
         <v>17.481169462203901</v>
       </c>
-      <c r="B206" s="1">
+      <c r="B206">
         <v>0.182072747568048</v>
       </c>
-      <c r="C206" s="1">
+      <c r="C206">
         <v>-3.9893240045584401E-2</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
+      <c r="A207">
         <v>17.627968549728301</v>
       </c>
-      <c r="B207" s="1">
+      <c r="B207">
         <v>0.33569662832858899</v>
       </c>
-      <c r="C207" s="1">
+      <c r="C207">
         <v>-5.5236793909270603E-2</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
+      <c r="A208">
         <v>17.700919151306099</v>
       </c>
-      <c r="B208" s="1">
+      <c r="B208">
         <v>0.40966368202810899</v>
       </c>
-      <c r="C208" s="1">
+      <c r="C208">
         <v>-6.90459923865889E-2</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
+      <c r="A209">
         <v>17.8473443984985</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B209">
         <v>0.53483869598114198</v>
       </c>
-      <c r="C209" s="1">
+      <c r="C209">
         <v>-8.5923901636644595E-2</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
+      <c r="A210">
         <v>17.993389368057201</v>
       </c>
-      <c r="B210" s="1">
+      <c r="B210">
         <v>0.65432393657267396</v>
       </c>
-      <c r="C210" s="1">
+      <c r="C210">
         <v>-8.5923901636644595E-2</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
+      <c r="A211">
         <v>18.426495313644399</v>
       </c>
-      <c r="B211" s="1">
+      <c r="B211">
         <v>0.58604665623465602</v>
       </c>
-      <c r="C211" s="1">
+      <c r="C211">
         <v>-2.3015330795529601E-2</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
+      <c r="A212">
         <v>18.503570795059201</v>
       </c>
-      <c r="B212" s="1">
+      <c r="B212">
         <v>0.51207960253513596</v>
       </c>
-      <c r="C212" s="1">
+      <c r="C212">
         <v>-1.3809198477317401E-2</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
+      <c r="A213">
         <v>18.722394943237301</v>
       </c>
-      <c r="B213" s="1">
+      <c r="B213">
         <v>0.32431708160558598</v>
       </c>
-      <c r="C213" s="1">
+      <c r="C213">
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
+      <c r="A214">
         <v>18.794829130172701</v>
       </c>
-      <c r="B214" s="1">
+      <c r="B214">
         <v>0.25035002790606598</v>
       </c>
-      <c r="C214" s="1">
+      <c r="C214">
         <v>1.6877909250055001E-2</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
+      <c r="A215">
         <v>18.941687583923301</v>
       </c>
-      <c r="B215" s="1">
+      <c r="B215">
         <v>0.108105693868528</v>
       </c>
-      <c r="C215" s="1">
+      <c r="C215">
         <v>4.2961950818321902E-2</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
+      <c r="A216">
         <v>19.085915565490701</v>
       </c>
-      <c r="B216" s="1">
+      <c r="B216">
         <v>-2.8448866807507502E-2</v>
       </c>
-      <c r="C216" s="1">
+      <c r="C216">
         <v>5.06337277501651E-2</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
+      <c r="A217">
         <v>19.1585595607757</v>
       </c>
-      <c r="B217" s="1">
+      <c r="B217">
         <v>-0.11379546723003001</v>
       </c>
-      <c r="C217" s="1">
+      <c r="C217">
         <v>5.8305504682008298E-2</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
+      <c r="A218">
         <v>19.523600816726599</v>
       </c>
-      <c r="B218" s="1">
+      <c r="B218">
         <v>-0.495010282450631</v>
       </c>
-      <c r="C218" s="1">
+      <c r="C218">
         <v>7.9786480091169301E-2</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
+      <c r="A219">
         <v>19.803940057754499</v>
       </c>
-      <c r="B219" s="1">
+      <c r="B219">
         <v>-0.69415235010318399</v>
       </c>
-      <c r="C219" s="1">
+      <c r="C219">
         <v>8.1320835477537906E-2</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
+      <c r="A220">
         <v>20.017710208892801</v>
       </c>
-      <c r="B220" s="1">
+      <c r="B220">
         <v>-0.68277280338018098</v>
       </c>
-      <c r="C220" s="1">
+      <c r="C220">
         <v>6.4442926227482905E-2</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
+      <c r="A221">
         <v>20.166712284088099</v>
       </c>
-      <c r="B221" s="1">
+      <c r="B221">
         <v>-0.50638982917363395</v>
       </c>
-      <c r="C221" s="1">
+      <c r="C221">
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
+      <c r="A222">
         <v>20.312736988067599</v>
       </c>
-      <c r="B222" s="1">
+      <c r="B222">
         <v>-0.41535345538960999</v>
       </c>
-      <c r="C222" s="1">
+      <c r="C222">
         <v>-1.5343553863686099E-2</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
+      <c r="A223">
         <v>20.527334451675401</v>
       </c>
-      <c r="B223" s="1">
+      <c r="B223">
         <v>-0.29586821479807801</v>
       </c>
-      <c r="C223" s="1">
+      <c r="C223">
         <v>-6.2908570841114106E-2</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
+      <c r="A224">
         <v>20.604626178741398</v>
       </c>
-      <c r="B224" s="1">
+      <c r="B224">
         <v>-0.210521614375556</v>
       </c>
-      <c r="C224" s="1">
+      <c r="C224">
         <v>-5.6771149295639298E-2</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
+      <c r="A225">
         <v>20.750501871109002</v>
       </c>
-      <c r="B225" s="1">
+      <c r="B225">
         <v>-0.119485240591531</v>
       </c>
-      <c r="C225" s="1">
+      <c r="C225">
         <v>-4.2961950818321798E-2</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
+      <c r="A226">
         <v>20.819481849670399</v>
       </c>
-      <c r="B226" s="1">
+      <c r="B226">
         <v>-2.8448866807507502E-2</v>
       </c>
-      <c r="C226" s="1">
+      <c r="C226">
         <v>-3.3755818500110502E-2</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
+      <c r="A227">
         <v>21.042732000350899</v>
       </c>
-      <c r="B227" s="1">
+      <c r="B227">
         <v>0.26741934799057099</v>
       </c>
-      <c r="C227" s="1">
+      <c r="C227">
         <v>-5.0633727750165301E-2</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
+      <c r="A228">
         <v>21.482532262802099</v>
       </c>
-      <c r="B228" s="1">
+      <c r="B228">
         <v>0.60880574968066203</v>
       </c>
-      <c r="C228" s="1">
+      <c r="C228">
         <v>-7.9786480091168899E-2</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
+      <c r="A229">
         <v>21.6901564598083</v>
       </c>
-      <c r="B229" s="1">
+      <c r="B229">
         <v>0.57466710951165301</v>
       </c>
-      <c r="C229" s="1">
+      <c r="C229">
         <v>-3.3755818500110502E-2</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
+      <c r="A230">
         <v>21.9054145812988</v>
       </c>
-      <c r="B230" s="1">
+      <c r="B230">
         <v>0.495010282450631</v>
       </c>
-      <c r="C230" s="1">
+      <c r="C230">
         <v>-2.3015330795529601E-2</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
+      <c r="A231">
         <v>22.0556433200836</v>
       </c>
-      <c r="B231" s="1">
+      <c r="B231">
         <v>0.36414549513609601</v>
       </c>
-      <c r="C231" s="1">
+      <c r="C231">
         <v>-7.6717769318435103E-3</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
+      <c r="A232">
         <v>22.2014608383178</v>
       </c>
-      <c r="B232" s="1">
+      <c r="B232">
         <v>0.244660254544565</v>
       </c>
-      <c r="C232" s="1">
+      <c r="C232">
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
+      <c r="A233">
         <v>22.269531965255698</v>
       </c>
-      <c r="B233" s="1">
+      <c r="B233">
         <v>0.18776252092954901</v>
       </c>
-      <c r="C233" s="1">
+      <c r="C233">
         <v>2.91527523410041E-2</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
+      <c r="A234">
         <v>22.411429405212399</v>
       </c>
-      <c r="B234" s="1">
+      <c r="B234">
         <v>7.9656827061021201E-2</v>
       </c>
-      <c r="C234" s="1">
+      <c r="C234">
         <v>2.3015330795529601E-2</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
+      <c r="A235">
         <v>22.483707904815599</v>
       </c>
-      <c r="B235" s="1">
+      <c r="B235">
         <v>2.2759093446006001E-2</v>
       </c>
-      <c r="C235" s="1">
+      <c r="C235">
         <v>3.3755818500110099E-2</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
+      <c r="A236">
         <v>22.630507946014401</v>
       </c>
-      <c r="B236" s="1">
+      <c r="B236">
         <v>-0.136554560676036</v>
       </c>
-      <c r="C236" s="1">
+      <c r="C236">
         <v>3.2221463113741397E-2</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
+      <c r="A237">
         <v>22.849028825759799</v>
       </c>
-      <c r="B237" s="1">
+      <c r="B237">
         <v>-0.358455721774595</v>
       </c>
-      <c r="C237" s="1">
+      <c r="C237">
         <v>6.9045992386588803E-2</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
+      <c r="A238">
         <v>22.9946706295013</v>
       </c>
-      <c r="B238" s="1">
+      <c r="B238">
         <v>-0.44949209555861902</v>
       </c>
-      <c r="C238" s="1">
+      <c r="C238">
         <v>6.4442926227482905E-2</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
+      <c r="A239">
         <v>23.063134193420399</v>
       </c>
-      <c r="B239" s="1">
+      <c r="B239">
         <v>-0.48932050908913</v>
       </c>
-      <c r="C239" s="1">
+      <c r="C239">
         <v>7.3649058545694701E-2</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
+      <c r="A240">
         <v>23.2143378257751</v>
       </c>
-      <c r="B240" s="1">
+      <c r="B240">
         <v>-0.58035688287315401</v>
       </c>
-      <c r="C240" s="1">
+      <c r="C240">
         <v>5.67711492956397E-2</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
+      <c r="A241">
         <v>23.2867076396942</v>
       </c>
-      <c r="B241" s="1">
+      <c r="B241">
         <v>-0.58604665623465602</v>
       </c>
-      <c r="C241" s="1">
+      <c r="C241">
         <v>6.2908570841114203E-2</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
+      <c r="A242">
         <v>23.505187034606902</v>
       </c>
-      <c r="B242" s="1">
+      <c r="B242">
         <v>-0.55190801606564599</v>
       </c>
-      <c r="C242" s="1">
+      <c r="C242">
         <v>3.8358884659215997E-2</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
+      <c r="A243">
         <v>23.722145557403501</v>
       </c>
-      <c r="B243" s="1">
+      <c r="B243">
         <v>-0.421043228751112</v>
       </c>
-      <c r="C243" s="1">
+      <c r="C243">
         <v>-3.6824529272846997E-2</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
+      <c r="A244">
         <v>23.940481185913001</v>
       </c>
-      <c r="B244" s="1">
+      <c r="B244">
         <v>-0.347076175051592</v>
       </c>
-      <c r="C244" s="1">
+      <c r="C244">
         <v>-5.0633727750165301E-2</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
+      <c r="A245">
         <v>24.009484052657999</v>
       </c>
-      <c r="B245" s="1">
+      <c r="B245">
         <v>-0.278798894713574</v>
       </c>
-      <c r="C245" s="1">
+      <c r="C245">
         <v>-5.9839860068377597E-2</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
+      <c r="A246">
         <v>24.081929445266699</v>
       </c>
-      <c r="B246" s="1">
+      <c r="B246">
         <v>-0.216211387737057</v>
       </c>
-      <c r="C246" s="1">
+      <c r="C246">
         <v>-5.0633727750165301E-2</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
+      <c r="A247">
         <v>24.231355428695601</v>
       </c>
-      <c r="B247" s="1">
+      <c r="B247">
         <v>-5.68977336150151E-2</v>
       </c>
-      <c r="C247" s="1">
+      <c r="C247">
         <v>-3.8358884659215699E-2</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
+      <c r="A248">
         <v>24.304499387741</v>
       </c>
-      <c r="B248" s="1">
+      <c r="B248">
         <v>5.68977336150151E-2</v>
       </c>
-      <c r="C248" s="1">
+      <c r="C248">
         <v>-2.45496861818983E-2</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
+      <c r="A249">
         <v>24.522100448608398</v>
       </c>
-      <c r="B249" s="1">
+      <c r="B249">
         <v>0.33569662832858899</v>
       </c>
-      <c r="C249" s="1">
+      <c r="C249">
         <v>-6.4442926227482794E-2</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
+      <c r="A250">
         <v>24.801436901092501</v>
       </c>
-      <c r="B250" s="1">
+      <c r="B250">
         <v>0.51207960253513596</v>
       </c>
-      <c r="C250" s="1">
+      <c r="C250">
         <v>-8.2855190863906303E-2</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
+      <c r="A251">
         <v>24.8743443489074</v>
       </c>
-      <c r="B251" s="1">
+      <c r="B251">
         <v>0.55759778942714799</v>
       </c>
-      <c r="C251" s="1">
+      <c r="C251">
         <v>-8.1320835477537601E-2</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
+      <c r="A252">
         <v>24.946876287460299</v>
       </c>
-      <c r="B252" s="1">
+      <c r="B252">
         <v>0.568977336150151</v>
       </c>
-      <c r="C252" s="1">
+      <c r="C252">
         <v>-6.4442926227482794E-2</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
+      <c r="A253">
         <v>25.019846677780102</v>
       </c>
-      <c r="B253" s="1">
+      <c r="B253">
         <v>0.57466710951165301</v>
       </c>
-      <c r="C253" s="1">
+      <c r="C253">
         <v>-5.9839860068377597E-2</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
+      <c r="A254">
         <v>25.3107621669769</v>
       </c>
-      <c r="B254" s="1">
+      <c r="B254">
         <v>0.47225118900462498</v>
       </c>
-      <c r="C254" s="1">
+      <c r="C254">
         <v>-1.2274843090948701E-2</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
+      <c r="A255">
         <v>25.384499549865701</v>
       </c>
-      <c r="B255" s="1">
+      <c r="B255">
         <v>0.39828413530510598</v>
       </c>
-      <c r="C255" s="1">
+      <c r="C255">
         <v>-1.5343553863687001E-3</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
+      <c r="A256">
         <v>25.4519524574279</v>
       </c>
-      <c r="B256" s="1">
+      <c r="B256">
         <v>0.38690458858210203</v>
       </c>
-      <c r="C256" s="1">
+      <c r="C256">
         <v>-6.1374215454748004E-3</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
+      <c r="A257">
         <v>25.600734710693299</v>
       </c>
-      <c r="B257" s="1">
+      <c r="B257">
         <v>0.284488668075075</v>
       </c>
-      <c r="C257" s="1">
+      <c r="C257">
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
+      <c r="A258">
         <v>25.671859741210898</v>
       </c>
-      <c r="B258" s="1">
+      <c r="B258">
         <v>0.216211387737057</v>
       </c>
-      <c r="C258" s="1">
+      <c r="C258">
         <v>1.9946620022792301E-2</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
+      <c r="A259">
         <v>25.815863847732501</v>
       </c>
-      <c r="B259" s="1">
+      <c r="B259">
         <v>0.102415920507027</v>
       </c>
-      <c r="C259" s="1">
+      <c r="C259">
         <v>2.4549686181898199E-2</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="1">
+      <c r="A260">
         <v>25.888388633727999</v>
       </c>
-      <c r="B260" s="1">
+      <c r="B260">
         <v>3.4138640169008999E-2</v>
       </c>
-      <c r="C260" s="1">
+      <c r="C260">
         <v>3.2221463113741397E-2</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
+      <c r="A261">
         <v>26.034586429595901</v>
       </c>
-      <c r="B261" s="1">
+      <c r="B261">
         <v>-0.108105693868528</v>
       </c>
-      <c r="C261" s="1">
+      <c r="C261">
         <v>3.0687107727372799E-2</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
+      <c r="A262">
         <v>26.398761272430399</v>
       </c>
-      <c r="B262" s="1">
+      <c r="B262">
         <v>-0.46656141564312398</v>
       </c>
-      <c r="C262" s="1">
+      <c r="C262">
         <v>7.8252124704800696E-2</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
+      <c r="A263">
         <v>26.4724056720733</v>
       </c>
-      <c r="B263" s="1">
+      <c r="B263">
         <v>-0.55190801606564599</v>
       </c>
-      <c r="C263" s="1">
+      <c r="C263">
         <v>6.2908570841114203E-2</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
+      <c r="A264">
         <v>26.545542955398499</v>
       </c>
-      <c r="B264" s="1">
+      <c r="B264">
         <v>-0.57466710951165301</v>
       </c>
-      <c r="C264" s="1">
+      <c r="C264">
         <v>4.6030661591059202E-2</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
+      <c r="A265">
         <v>26.685634374618498</v>
       </c>
-      <c r="B265" s="1">
+      <c r="B265">
         <v>-0.62018529640366504</v>
       </c>
-      <c r="C265" s="1">
+      <c r="C265">
         <v>7.8252124704800696E-2</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="1">
+      <c r="A266">
         <v>26.759447097778299</v>
       </c>
-      <c r="B266" s="1">
+      <c r="B266">
         <v>-0.63156484312666805</v>
       </c>
-      <c r="C266" s="1">
+      <c r="C266">
         <v>7.5183413932063403E-2</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
+      <c r="A267">
         <v>27.055108785629201</v>
       </c>
-      <c r="B267" s="1">
+      <c r="B267">
         <v>-0.426733002112613</v>
       </c>
-      <c r="C267" s="1">
+      <c r="C267">
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="1">
+      <c r="A268">
         <v>27.274419069290101</v>
       </c>
-      <c r="B268" s="1">
+      <c r="B268">
         <v>-0.36414549513609601</v>
       </c>
-      <c r="C268" s="1">
+      <c r="C268">
         <v>-3.8358884659215699E-2</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
+      <c r="A269">
         <v>27.488481283187799</v>
       </c>
-      <c r="B269" s="1">
+      <c r="B269">
         <v>-0.23328070782156199</v>
       </c>
-      <c r="C269" s="1">
+      <c r="C269">
         <v>-6.2908570841114106E-2</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
+      <c r="A270">
         <v>27.638150691985999</v>
       </c>
-      <c r="B270" s="1">
+      <c r="B270">
         <v>-8.5346600422522706E-2</v>
       </c>
-      <c r="C270" s="1">
+      <c r="C270">
         <v>-4.7565016977427897E-2</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="1">
+      <c r="A271">
         <v>27.710568189620901</v>
       </c>
-      <c r="B271" s="1">
+      <c r="B271">
         <v>-5.6897733615015097E-3</v>
       </c>
-      <c r="C271" s="1">
+      <c r="C271">
         <v>-3.0687107727372199E-2</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="1">
+      <c r="A272">
         <v>27.7825236320495</v>
       </c>
-      <c r="B272" s="1">
+      <c r="B272">
         <v>0.108105693868528</v>
       </c>
-      <c r="C272" s="1">
+      <c r="C272">
         <v>-2.76183969546357E-2</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
+      <c r="A273">
         <v>27.9985334873199</v>
       </c>
-      <c r="B273" s="1">
+      <c r="B273">
         <v>0.37552504185909902</v>
       </c>
-      <c r="C273" s="1">
+      <c r="C273">
         <v>-7.6717769318432397E-2</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
+      <c r="A274">
         <v>28.1437647342681</v>
       </c>
-      <c r="B274" s="1">
+      <c r="B274">
         <v>0.45518186892012102</v>
       </c>
-      <c r="C274" s="1">
+      <c r="C274">
         <v>-8.1320835477537601E-2</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="1">
+      <c r="A275">
         <v>28.361364603042599</v>
       </c>
-      <c r="B275" s="1">
+      <c r="B275">
         <v>0.55190801606564599</v>
       </c>
-      <c r="C275" s="1">
+      <c r="C275">
         <v>-7.9786480091168899E-2</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
+      <c r="A276">
         <v>28.434723615646298</v>
       </c>
-      <c r="B276" s="1">
+      <c r="B276">
         <v>0.568977336150151</v>
       </c>
-      <c r="C276" s="1">
+      <c r="C276">
         <v>-5.3702438522901901E-2</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
+      <c r="A277">
         <v>28.507938385009702</v>
       </c>
-      <c r="B277" s="1">
+      <c r="B277">
         <v>0.57466710951165301</v>
       </c>
-      <c r="C277" s="1">
+      <c r="C277">
         <v>-3.5290173886479197E-2</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="1">
+      <c r="A278">
         <v>28.649589300155601</v>
       </c>
-      <c r="B278" s="1">
+      <c r="B278">
         <v>0.58035688287315401</v>
       </c>
-      <c r="C278" s="1">
+      <c r="C278">
         <v>-3.6824529272846997E-2</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="1">
+      <c r="A279">
         <v>28.7267823219299</v>
       </c>
-      <c r="B279" s="1">
+      <c r="B279">
         <v>0.53483869598114198</v>
       </c>
-      <c r="C279" s="1">
+      <c r="C279">
         <v>-2.6084041568267002E-2</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="1">
+      <c r="A280">
         <v>28.873186826705901</v>
       </c>
-      <c r="B280" s="1">
+      <c r="B280">
         <v>0.40397390866660698</v>
       </c>
-      <c r="C280" s="1">
+      <c r="C280">
         <v>-1.0740487704580901E-2</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="1">
+      <c r="A281">
         <v>28.945733785629201</v>
       </c>
-      <c r="B281" s="1">
+      <c r="B281">
         <v>0.33569662832858899</v>
       </c>
-      <c r="C281" s="1">
+      <c r="C281">
         <v>-1.5343553863687001E-3</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="1">
+      <c r="A282">
         <v>29.0145409107208</v>
       </c>
-      <c r="B282" s="1">
+      <c r="B282">
         <v>0.27310912135207199</v>
       </c>
-      <c r="C282" s="1">
+      <c r="C282">
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="1">
+      <c r="A283">
         <v>29.237425565719601</v>
       </c>
-      <c r="B283" s="1">
+      <c r="B283">
         <v>9.1036373784024197E-2</v>
       </c>
-      <c r="C283" s="1">
+      <c r="C283">
         <v>3.5290173886478697E-2</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="1">
+      <c r="A284">
         <v>29.383660793304401</v>
       </c>
-      <c r="B284" s="1">
+      <c r="B284">
         <v>-2.8448866807507502E-2</v>
       </c>
-      <c r="C284" s="1">
+      <c r="C284">
         <v>3.5290173886478697E-2</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="1">
+      <c r="A285">
         <v>29.529803037643401</v>
       </c>
-      <c r="B285" s="1">
+      <c r="B285">
         <v>-0.15931365412204199</v>
       </c>
-      <c r="C285" s="1">
+      <c r="C285">
         <v>4.9099372363796502E-2</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="1">
+      <c r="A286">
         <v>29.673896074295001</v>
       </c>
-      <c r="B286" s="1">
+      <c r="B286">
         <v>-0.31293753488258302</v>
       </c>
-      <c r="C286" s="1">
+      <c r="C286">
         <v>4.4496306204690597E-2</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="1">
+      <c r="A287">
         <v>29.7380516529083</v>
       </c>
-      <c r="B287" s="1">
+      <c r="B287">
         <v>-0.358455721774595</v>
       </c>
-      <c r="C287" s="1">
+      <c r="C287">
         <v>7.6717769318431994E-2</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="1">
+      <c r="A288">
         <v>29.8116147518157</v>
       </c>
-      <c r="B288" s="1">
+      <c r="B288">
         <v>-0.426733002112613</v>
       </c>
-      <c r="C288" s="1">
+      <c r="C288">
         <v>8.2855190863906594E-2</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="1">
+      <c r="A289">
         <v>29.883767604827799</v>
       </c>
-      <c r="B289" s="1">
+      <c r="B289">
         <v>-0.47225118900462498</v>
       </c>
-      <c r="C289" s="1">
+      <c r="C289">
         <v>3.9893240045584602E-2</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="1">
+      <c r="A290">
         <v>29.955884695053101</v>
       </c>
-      <c r="B290" s="1">
+      <c r="B290">
         <v>-0.50638982917363395</v>
       </c>
-      <c r="C290" s="1">
+      <c r="C290">
         <v>6.2908570841114203E-2</v>
       </c>
     </row>

--- a/local_stiffness/data/1698205438_joint_6_1_0.69_data.xlsx
+++ b/local_stiffness/data/1698205438_joint_6_1_0.69_data.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gal65\masters\STM32_snake\local_stiffness\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A068AE-E271-46F3-A258-067964FB64BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435AB7B2-6239-4151-A309-476BA5FD7173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="37425" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -35,6 +48,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.000000000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -64,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,13 +144,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$290</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000000000000</c:formatCode>
                 <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1912,13 +1941,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$290</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000000000000</c:formatCode>
                 <c:ptCount val="289"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3681,6 +3722,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="5886864"/>
         <c:axId val="2024047136"/>
@@ -3692,7 +3734,67 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1200"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1200" baseline="0"/>
+                  <a:t> of Sample (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3710,7 +3812,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3734,12 +3836,16 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="12"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="2024047136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.8"/>
+          <c:min val="-0.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3757,6 +3863,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1200"/>
+                  <a:t>Angular position (rad)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3791,6 +3952,7 @@
         <c:crossAx val="5886864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4435,16 +4597,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4761,11 +4923,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AM10" sqref="AM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4779,7 +4944,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
@@ -4790,7 +4955,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>0.12013196945190401</v>
       </c>
       <c r="B3">
@@ -4801,7 +4966,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>0.124681949615478</v>
       </c>
       <c r="B4">
@@ -4812,7 +4977,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>0.124681949615478</v>
       </c>
       <c r="B5">
@@ -4823,7 +4988,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>0.124681949615478</v>
       </c>
       <c r="B6">
@@ -4834,7 +4999,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>0.124681949615478</v>
       </c>
       <c r="B7">
@@ -4845,7 +5010,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>0.124681949615478</v>
       </c>
       <c r="B8">
@@ -4856,7 +5021,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>0.124681949615478</v>
       </c>
       <c r="B9">
@@ -4867,7 +5032,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>0.201925754547119</v>
       </c>
       <c r="B10">
@@ -4878,7 +5043,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>0.27480554580688399</v>
       </c>
       <c r="B11">
@@ -4889,7 +5054,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>0.34874129295349099</v>
       </c>
       <c r="B12">
@@ -4900,7 +5065,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>0.41994237899780201</v>
       </c>
       <c r="B13">
@@ -4911,7 +5076,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>0.49334096908569303</v>
       </c>
       <c r="B14">
@@ -4922,7 +5087,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>0.56622219085693304</v>
       </c>
       <c r="B15">
@@ -4933,7 +5098,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>0.63373184204101496</v>
       </c>
       <c r="B16">
@@ -4944,7 +5109,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>0.70633649826049805</v>
       </c>
       <c r="B17">
@@ -4955,7 +5120,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>0.78256916999816895</v>
       </c>
       <c r="B18">
@@ -4966,7 +5131,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>0.85558366775512695</v>
       </c>
       <c r="B19">
@@ -4977,7 +5142,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>0.91941070556640603</v>
       </c>
       <c r="B20">
@@ -4988,7 +5153,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>0.99174571037292403</v>
       </c>
       <c r="B21">
@@ -4999,7 +5164,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>1.0648279190063401</v>
       </c>
       <c r="B22">
@@ -5010,7 +5175,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>1.1377863883972099</v>
       </c>
       <c r="B23">
@@ -5021,7 +5186,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>1.2107708454132</v>
       </c>
       <c r="B24">
@@ -5032,7 +5197,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>1.28217053413391</v>
       </c>
       <c r="B25">
@@ -5043,7 +5208,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>1.5647897720336901</v>
       </c>
       <c r="B26">
@@ -5054,7 +5219,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>1.63793420791625</v>
       </c>
       <c r="B27">
@@ -5065,7 +5230,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>1.7095890045166</v>
       </c>
       <c r="B28">
@@ -5076,7 +5241,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>1.78157210350036</v>
       </c>
       <c r="B29">
@@ -5087,7 +5252,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>1.85530138015747</v>
       </c>
       <c r="B30">
@@ -5098,7 +5263,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>1.92777347564697</v>
       </c>
       <c r="B31">
@@ -5109,7 +5274,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>1.9995641708373999</v>
       </c>
       <c r="B32">
@@ -5120,7 +5285,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>2.07158994674682</v>
       </c>
       <c r="B33">
@@ -5131,7 +5296,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>2.14402747154235</v>
       </c>
       <c r="B34">
@@ -5142,7 +5307,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>2.2167296409606898</v>
       </c>
       <c r="B35">
@@ -5153,7 +5318,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>2.2852487564086901</v>
       </c>
       <c r="B36">
@@ -5164,7 +5329,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>2.3634858131408598</v>
       </c>
       <c r="B37">
@@ -5175,7 +5340,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>2.4352049827575599</v>
       </c>
       <c r="B38">
@@ -5186,7 +5351,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>2.50811338424682</v>
       </c>
       <c r="B39">
@@ -5197,7 +5362,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>2.5795640945434499</v>
       </c>
       <c r="B40">
@@ -5208,7 +5373,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>2.6439976692199698</v>
       </c>
       <c r="B41">
@@ -5219,7 +5384,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>2.78929495811462</v>
       </c>
       <c r="B42">
@@ -5230,7 +5395,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>2.8623995780944802</v>
       </c>
       <c r="B43">
@@ -5241,7 +5406,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>2.9303703308105402</v>
       </c>
       <c r="B44">
@@ -5252,7 +5417,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>3.01002645492553</v>
       </c>
       <c r="B45">
@@ -5263,7 +5428,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>3.0820055007934499</v>
       </c>
       <c r="B46">
@@ -5274,7 +5439,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>3.1499898433685298</v>
       </c>
       <c r="B47">
@@ -5285,7 +5450,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>3.2268996238708398</v>
       </c>
       <c r="B48">
@@ -5296,7 +5461,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>3.3001902103424001</v>
       </c>
       <c r="B49">
@@ -5307,7 +5472,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>3.3721666336059499</v>
       </c>
       <c r="B50">
@@ -5318,7 +5483,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>3.4446272850036599</v>
       </c>
       <c r="B51">
@@ -5329,7 +5494,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>3.51725721359252</v>
       </c>
       <c r="B52">
@@ -5340,7 +5505,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>3.5882542133331299</v>
       </c>
       <c r="B53">
@@ -5351,7 +5516,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>3.6616113185882502</v>
       </c>
       <c r="B54">
@@ -5362,7 +5527,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>3.73370909690856</v>
       </c>
       <c r="B55">
@@ -5373,7 +5538,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>3.8075108528137198</v>
       </c>
       <c r="B56">
@@ -5384,7 +5549,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>3.8803074359893799</v>
       </c>
       <c r="B57">
@@ -5395,7 +5560,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>4.0933139324188197</v>
       </c>
       <c r="B58">
@@ -5406,7 +5571,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>4.1706264019012398</v>
       </c>
       <c r="B59">
@@ -5417,7 +5582,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>4.3038780689239502</v>
       </c>
       <c r="B60">
@@ -5428,7 +5593,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>4.4486107826232901</v>
       </c>
       <c r="B61">
@@ -5439,7 +5604,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>4.5231590270995996</v>
       </c>
       <c r="B62">
@@ -5450,7 +5615,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>4.5951144695281902</v>
       </c>
       <c r="B63">
@@ -5461,7 +5626,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>4.7406861782073904</v>
       </c>
       <c r="B64">
@@ -5472,7 +5637,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>4.8842921257018999</v>
       </c>
       <c r="B65">
@@ -5483,7 +5648,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>4.9577367305755597</v>
       </c>
       <c r="B66">
@@ -5494,7 +5659,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>5.0309703350067103</v>
       </c>
       <c r="B67">
@@ -5505,7 +5670,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>5.1029901504516602</v>
       </c>
       <c r="B68">
@@ -5516,7 +5681,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>5.3213319778442303</v>
       </c>
       <c r="B69">
@@ -5527,7 +5692,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>5.3945887088775599</v>
       </c>
       <c r="B70">
@@ -5538,7 +5703,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>5.4672544002532897</v>
       </c>
       <c r="B71">
@@ -5549,7 +5714,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>5.5384752750396702</v>
       </c>
       <c r="B72">
@@ -5560,7 +5725,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>5.6099579334258998</v>
       </c>
       <c r="B73">
@@ -5571,7 +5736,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>5.6831984519958496</v>
       </c>
       <c r="B74">
@@ -5582,7 +5747,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>5.9022560119628897</v>
       </c>
       <c r="B75">
@@ -5593,7 +5758,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>5.9743785858154297</v>
       </c>
       <c r="B76">
@@ -5604,7 +5769,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>6.0404772758483798</v>
       </c>
       <c r="B77">
@@ -5615,7 +5780,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>6.1130428314208896</v>
       </c>
       <c r="B78">
@@ -5626,7 +5791,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>6.1806757450103698</v>
       </c>
       <c r="B79">
@@ -5637,7 +5802,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>6.2523252964019704</v>
       </c>
       <c r="B80">
@@ -5648,7 +5813,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>6.4006385803222603</v>
       </c>
       <c r="B81">
@@ -5659,7 +5824,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>6.4692027568817103</v>
       </c>
       <c r="B82">
@@ -5670,7 +5835,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>6.5406403541564897</v>
       </c>
       <c r="B83">
@@ -5681,7 +5846,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>6.6186420917510898</v>
       </c>
       <c r="B84">
@@ -5692,7 +5857,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>6.6907930374145499</v>
       </c>
       <c r="B85">
@@ -5703,7 +5868,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>6.7631249427795401</v>
       </c>
       <c r="B86">
@@ -5714,7 +5879,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>6.8355584144592196</v>
       </c>
       <c r="B87">
@@ -5725,7 +5890,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>6.9731566905975297</v>
       </c>
       <c r="B88">
@@ -5736,7 +5901,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>7.0449407100677401</v>
       </c>
       <c r="B89">
@@ -5747,7 +5912,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>7.1161158084869296</v>
       </c>
       <c r="B90">
@@ -5758,7 +5923,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>7.1894333362579301</v>
       </c>
       <c r="B91">
@@ -5769,7 +5934,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>7.2584803104400599</v>
       </c>
       <c r="B92">
@@ -5780,7 +5945,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>7.3336248397827104</v>
       </c>
       <c r="B93">
@@ -5791,7 +5956,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>7.4071977138519198</v>
       </c>
       <c r="B94">
@@ -5802,7 +5967,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>7.4793937206268302</v>
       </c>
       <c r="B95">
@@ -5813,7 +5978,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>7.5511837005615199</v>
       </c>
       <c r="B96">
@@ -5824,7 +5989,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>7.7588875293731601</v>
       </c>
       <c r="B97">
@@ -5835,7 +6000,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>7.83178639411926</v>
       </c>
       <c r="B98">
@@ -5846,7 +6011,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>7.9780771732330296</v>
       </c>
       <c r="B99">
@@ -5857,7 +6022,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>8.0497570037841797</v>
       </c>
       <c r="B100">
@@ -5868,7 +6033,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>8.1213760375976491</v>
       </c>
       <c r="B101">
@@ -5879,7 +6044,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>8.2705235481262207</v>
       </c>
       <c r="B102">
@@ -5890,7 +6055,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>8.3445420265197701</v>
       </c>
       <c r="B103">
@@ -5901,7 +6066,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>8.4176909923553396</v>
       </c>
       <c r="B104">
@@ -5912,7 +6077,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>8.4912683963775599</v>
       </c>
       <c r="B105">
@@ -5923,7 +6088,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>8.5643897056579501</v>
       </c>
       <c r="B106">
@@ -5934,7 +6099,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="1">
         <v>8.7108340263366699</v>
       </c>
       <c r="B107">
@@ -5945,7 +6110,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="1">
         <v>8.7838134765625</v>
       </c>
       <c r="B108">
@@ -5956,7 +6121,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="1">
         <v>8.8549091815948398</v>
       </c>
       <c r="B109">
@@ -5967,7 +6132,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="1">
         <v>8.9921815395355207</v>
       </c>
       <c r="B110">
@@ -5978,7 +6143,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="1">
         <v>9.06508111953735</v>
       </c>
       <c r="B111">
@@ -5989,7 +6154,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="1">
         <v>9.2116920948028493</v>
       </c>
       <c r="B112">
@@ -6000,7 +6165,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="1">
         <v>9.2845196723937899</v>
       </c>
       <c r="B113">
@@ -6011,7 +6176,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="1">
         <v>9.4303877353668195</v>
       </c>
       <c r="B114">
@@ -6022,7 +6187,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="1">
         <v>9.4993903636932302</v>
       </c>
       <c r="B115">
@@ -6033,7 +6198,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="1">
         <v>9.5759143829345703</v>
       </c>
       <c r="B116">
@@ -6044,7 +6209,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="1">
         <v>9.7931430339813197</v>
       </c>
       <c r="B117">
@@ -6055,7 +6220,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="1">
         <v>9.8662254810333199</v>
       </c>
       <c r="B118">
@@ -6066,7 +6231,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="1">
         <v>9.92948174476623</v>
       </c>
       <c r="B119">
@@ -6077,7 +6242,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="1">
         <v>10.0035512447357</v>
       </c>
       <c r="B120">
@@ -6088,7 +6253,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="1">
         <v>10.0756118297576</v>
       </c>
       <c r="B121">
@@ -6099,7 +6264,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="1">
         <v>10.213997364044101</v>
       </c>
       <c r="B122">
@@ -6110,7 +6275,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="1">
         <v>10.2866177558898</v>
       </c>
       <c r="B123">
@@ -6121,7 +6286,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="1">
         <v>10.350015401840199</v>
       </c>
       <c r="B124">
@@ -6132,7 +6297,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="1">
         <v>10.4236063957214</v>
       </c>
       <c r="B125">
@@ -6143,7 +6308,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="1">
         <v>10.564484596252401</v>
       </c>
       <c r="B126">
@@ -6154,7 +6319,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="1">
         <v>10.640255212783799</v>
       </c>
       <c r="B127">
@@ -6165,7 +6330,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="1">
         <v>10.7150838375091</v>
       </c>
       <c r="B128">
@@ -6176,7 +6341,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="1">
         <v>10.7870159149169</v>
       </c>
       <c r="B129">
@@ -6187,7 +6352,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="1">
         <v>10.860057115554801</v>
       </c>
       <c r="B130">
@@ -6198,7 +6363,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="1">
         <v>10.933932065963701</v>
       </c>
       <c r="B131">
@@ -6209,7 +6374,7 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="1">
         <v>11.0076622962951</v>
       </c>
       <c r="B132">
@@ -6220,7 +6385,7 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="1">
         <v>11.0811741352081</v>
       </c>
       <c r="B133">
@@ -6231,7 +6396,7 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="1">
         <v>11.2258701324462</v>
       </c>
       <c r="B134">
@@ -6242,7 +6407,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="1">
         <v>11.2974698543548</v>
       </c>
       <c r="B135">
@@ -6253,7 +6418,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="1">
         <v>11.3714287281036</v>
       </c>
       <c r="B136">
@@ -6264,7 +6429,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="1">
         <v>11.4444725513458</v>
       </c>
       <c r="B137">
@@ -6275,7 +6440,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="1">
         <v>11.5167250633239</v>
       </c>
       <c r="B138">
@@ -6286,7 +6451,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="1">
         <v>11.5893211364746</v>
       </c>
       <c r="B139">
@@ -6297,7 +6462,7 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="1">
         <v>11.6613359451293</v>
       </c>
       <c r="B140">
@@ -6308,7 +6473,7 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="1">
         <v>11.734420299530001</v>
       </c>
       <c r="B141">
@@ -6319,7 +6484,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="1">
         <v>11.8806295394897</v>
       </c>
       <c r="B142">
@@ -6330,7 +6495,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="1">
         <v>11.9547023773193</v>
       </c>
       <c r="B143">
@@ -6341,7 +6506,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="1">
         <v>12.0286312103271</v>
       </c>
       <c r="B144">
@@ -6352,7 +6517,7 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="1">
         <v>12.174741744995099</v>
       </c>
       <c r="B145">
@@ -6363,7 +6528,7 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="1">
         <v>12.3211956024169</v>
       </c>
       <c r="B146">
@@ -6374,7 +6539,7 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="1">
         <v>12.394562005996701</v>
       </c>
       <c r="B147">
@@ -6385,7 +6550,7 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="1">
         <v>12.467200517654399</v>
       </c>
       <c r="B148">
@@ -6396,7 +6561,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="1">
         <v>12.6130781173706</v>
       </c>
       <c r="B149">
@@ -6407,7 +6572,7 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="1">
         <v>12.685839414596501</v>
       </c>
       <c r="B150">
@@ -6418,7 +6583,7 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="1">
         <v>12.8317317962646</v>
       </c>
       <c r="B151">
@@ -6429,7 +6594,7 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="1">
         <v>12.9771444797515</v>
       </c>
       <c r="B152">
@@ -6440,7 +6605,7 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="1">
         <v>13.1231806278228</v>
       </c>
       <c r="B153">
@@ -6451,7 +6616,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="1">
         <v>13.195692062377899</v>
       </c>
       <c r="B154">
@@ -6462,7 +6627,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="1">
         <v>13.259859800338701</v>
       </c>
       <c r="B155">
@@ -6473,7 +6638,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="1">
         <v>13.342157125472999</v>
       </c>
       <c r="B156">
@@ -6484,7 +6649,7 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="1">
         <v>13.409745454788199</v>
       </c>
       <c r="B157">
@@ -6495,7 +6660,7 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="1">
         <v>13.4860613346099</v>
       </c>
       <c r="B158">
@@ -6506,7 +6671,7 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="1">
         <v>13.557837486266999</v>
       </c>
       <c r="B159">
@@ -6517,7 +6682,7 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="1">
         <v>13.6292707920074</v>
       </c>
       <c r="B160">
@@ -6528,7 +6693,7 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="1">
         <v>13.699926614761299</v>
       </c>
       <c r="B161">
@@ -6539,7 +6704,7 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="1">
         <v>13.7745993137359</v>
       </c>
       <c r="B162">
@@ -6550,7 +6715,7 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="1">
         <v>13.8477365970611</v>
       </c>
       <c r="B163">
@@ -6561,7 +6726,7 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="1">
         <v>13.920745372772201</v>
       </c>
       <c r="B164">
@@ -6572,7 +6737,7 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="1">
         <v>13.9943244457244</v>
       </c>
       <c r="B165">
@@ -6583,7 +6748,7 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="1">
         <v>14.2134532928466</v>
       </c>
       <c r="B166">
@@ -6594,7 +6759,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="1">
         <v>14.286641359329201</v>
       </c>
       <c r="B167">
@@ -6605,7 +6770,7 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="1">
         <v>14.3586857318878</v>
       </c>
       <c r="B168">
@@ -6616,7 +6781,7 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="1">
         <v>14.429680109024</v>
       </c>
       <c r="B169">
@@ -6627,7 +6792,7 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="1">
         <v>14.5028853416442</v>
       </c>
       <c r="B170">
@@ -6638,7 +6803,7 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" s="1">
         <v>14.571380138397201</v>
       </c>
       <c r="B171">
@@ -6649,7 +6814,7 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="1">
         <v>14.6462197303771</v>
       </c>
       <c r="B172">
@@ -6660,7 +6825,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="1">
         <v>14.7177565097808</v>
       </c>
       <c r="B173">
@@ -6671,7 +6836,7 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="1">
         <v>14.791679382324199</v>
       </c>
       <c r="B174">
@@ -6682,7 +6847,7 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="1">
         <v>14.859820127487099</v>
       </c>
       <c r="B175">
@@ -6693,7 +6858,7 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="1">
         <v>14.932115316390901</v>
       </c>
       <c r="B176">
@@ -6704,7 +6869,7 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="A177" s="1">
         <v>15.0104370117187</v>
       </c>
       <c r="B177">
@@ -6715,7 +6880,7 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" s="1">
         <v>15.0833177566528</v>
       </c>
       <c r="B178">
@@ -6726,7 +6891,7 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="1">
         <v>15.228878259658799</v>
       </c>
       <c r="B179">
@@ -6737,7 +6902,7 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" s="1">
         <v>15.3018615245819</v>
       </c>
       <c r="B180">
@@ -6748,7 +6913,7 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="1">
         <v>15.374747991561801</v>
       </c>
       <c r="B181">
@@ -6759,7 +6924,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="1">
         <v>15.448582172393699</v>
       </c>
       <c r="B182">
@@ -6770,7 +6935,7 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="A183" s="1">
         <v>15.591924667358301</v>
       </c>
       <c r="B183">
@@ -6781,7 +6946,7 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" s="1">
         <v>15.660337448120099</v>
       </c>
       <c r="B184">
@@ -6792,7 +6957,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" s="1">
         <v>15.8103532791137</v>
       </c>
       <c r="B185">
@@ -6803,7 +6968,7 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" s="1">
         <v>15.8832612037658</v>
       </c>
       <c r="B186">
@@ -6814,7 +6979,7 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="1">
         <v>15.955650806427</v>
       </c>
       <c r="B187">
@@ -6825,7 +6990,7 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="A188" s="1">
         <v>16.029218196868801</v>
       </c>
       <c r="B188">
@@ -6836,7 +7001,7 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="A189" s="1">
         <v>16.102631568908599</v>
       </c>
       <c r="B189">
@@ -6847,7 +7012,7 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="A190" s="1">
         <v>16.175529241561801</v>
       </c>
       <c r="B190">
@@ -6858,7 +7023,7 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="A191" s="1">
         <v>16.248400926589898</v>
       </c>
       <c r="B191">
@@ -6869,7 +7034,7 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="1">
         <v>16.321198463439899</v>
       </c>
       <c r="B192">
@@ -6880,7 +7045,7 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="A193" s="1">
         <v>16.394631862640299</v>
       </c>
       <c r="B193">
@@ -6891,7 +7056,7 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="1">
         <v>16.466785192489599</v>
       </c>
       <c r="B194">
@@ -6902,7 +7067,7 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="1">
         <v>16.535015344619701</v>
       </c>
       <c r="B195">
@@ -6913,7 +7078,7 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" s="1">
         <v>16.606549501419</v>
       </c>
       <c r="B196">
@@ -6924,7 +7089,7 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="1">
         <v>16.683710098266602</v>
       </c>
       <c r="B197">
@@ -6935,7 +7100,7 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="A198" s="1">
         <v>16.755734443664501</v>
       </c>
       <c r="B198">
@@ -6946,7 +7111,7 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="A199" s="1">
         <v>16.8244049549102</v>
       </c>
       <c r="B199">
@@ -6957,7 +7122,7 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="A200" s="1">
         <v>16.902067899703901</v>
       </c>
       <c r="B200">
@@ -6968,7 +7133,7 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="A201" s="1">
         <v>16.974706649780199</v>
       </c>
       <c r="B201">
@@ -6979,7 +7144,7 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="A202" s="1">
         <v>17.048406362533498</v>
       </c>
       <c r="B202">
@@ -6990,7 +7155,7 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="A203" s="1">
         <v>17.1199212074279</v>
       </c>
       <c r="B203">
@@ -7001,7 +7166,7 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="A204" s="1">
         <v>17.1917853355407</v>
       </c>
       <c r="B204">
@@ -7012,7 +7177,7 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="A205" s="1">
         <v>17.2647171020507</v>
       </c>
       <c r="B205">
@@ -7023,7 +7188,7 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="A206" s="1">
         <v>17.481169462203901</v>
       </c>
       <c r="B206">
@@ -7034,7 +7199,7 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="A207" s="1">
         <v>17.627968549728301</v>
       </c>
       <c r="B207">
@@ -7045,7 +7210,7 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="A208" s="1">
         <v>17.700919151306099</v>
       </c>
       <c r="B208">
@@ -7056,7 +7221,7 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="A209" s="1">
         <v>17.8473443984985</v>
       </c>
       <c r="B209">
@@ -7067,7 +7232,7 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="A210" s="1">
         <v>17.993389368057201</v>
       </c>
       <c r="B210">
@@ -7078,7 +7243,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="A211" s="1">
         <v>18.426495313644399</v>
       </c>
       <c r="B211">
@@ -7089,7 +7254,7 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="A212" s="1">
         <v>18.503570795059201</v>
       </c>
       <c r="B212">
@@ -7100,7 +7265,7 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="A213" s="1">
         <v>18.722394943237301</v>
       </c>
       <c r="B213">
@@ -7111,7 +7276,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="A214" s="1">
         <v>18.794829130172701</v>
       </c>
       <c r="B214">
@@ -7122,7 +7287,7 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215">
+      <c r="A215" s="1">
         <v>18.941687583923301</v>
       </c>
       <c r="B215">
@@ -7133,7 +7298,7 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="A216" s="1">
         <v>19.085915565490701</v>
       </c>
       <c r="B216">
@@ -7144,7 +7309,7 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217">
+      <c r="A217" s="1">
         <v>19.1585595607757</v>
       </c>
       <c r="B217">
@@ -7155,7 +7320,7 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218">
+      <c r="A218" s="1">
         <v>19.523600816726599</v>
       </c>
       <c r="B218">
@@ -7166,7 +7331,7 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="A219" s="1">
         <v>19.803940057754499</v>
       </c>
       <c r="B219">
@@ -7177,7 +7342,7 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="A220" s="1">
         <v>20.017710208892801</v>
       </c>
       <c r="B220">
@@ -7188,7 +7353,7 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="A221" s="1">
         <v>20.166712284088099</v>
       </c>
       <c r="B221">
@@ -7199,7 +7364,7 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="A222" s="1">
         <v>20.312736988067599</v>
       </c>
       <c r="B222">
@@ -7210,7 +7375,7 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="A223" s="1">
         <v>20.527334451675401</v>
       </c>
       <c r="B223">
@@ -7221,7 +7386,7 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="A224" s="1">
         <v>20.604626178741398</v>
       </c>
       <c r="B224">
@@ -7232,7 +7397,7 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225">
+      <c r="A225" s="1">
         <v>20.750501871109002</v>
       </c>
       <c r="B225">
@@ -7243,7 +7408,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="A226" s="1">
         <v>20.819481849670399</v>
       </c>
       <c r="B226">
@@ -7254,7 +7419,7 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="A227" s="1">
         <v>21.042732000350899</v>
       </c>
       <c r="B227">
@@ -7265,7 +7430,7 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228">
+      <c r="A228" s="1">
         <v>21.482532262802099</v>
       </c>
       <c r="B228">
@@ -7276,7 +7441,7 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="A229" s="1">
         <v>21.6901564598083</v>
       </c>
       <c r="B229">
@@ -7287,7 +7452,7 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="A230" s="1">
         <v>21.9054145812988</v>
       </c>
       <c r="B230">
@@ -7298,7 +7463,7 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="A231" s="1">
         <v>22.0556433200836</v>
       </c>
       <c r="B231">
@@ -7309,7 +7474,7 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232">
+      <c r="A232" s="1">
         <v>22.2014608383178</v>
       </c>
       <c r="B232">
@@ -7320,7 +7485,7 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="A233" s="1">
         <v>22.269531965255698</v>
       </c>
       <c r="B233">
@@ -7331,7 +7496,7 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234">
+      <c r="A234" s="1">
         <v>22.411429405212399</v>
       </c>
       <c r="B234">
@@ -7342,7 +7507,7 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="A235" s="1">
         <v>22.483707904815599</v>
       </c>
       <c r="B235">
@@ -7353,7 +7518,7 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="A236" s="1">
         <v>22.630507946014401</v>
       </c>
       <c r="B236">
@@ -7364,7 +7529,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237">
+      <c r="A237" s="1">
         <v>22.849028825759799</v>
       </c>
       <c r="B237">
@@ -7375,7 +7540,7 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="A238" s="1">
         <v>22.9946706295013</v>
       </c>
       <c r="B238">
@@ -7386,7 +7551,7 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="A239" s="1">
         <v>23.063134193420399</v>
       </c>
       <c r="B239">
@@ -7397,7 +7562,7 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="A240" s="1">
         <v>23.2143378257751</v>
       </c>
       <c r="B240">
@@ -7408,7 +7573,7 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="A241" s="1">
         <v>23.2867076396942</v>
       </c>
       <c r="B241">
@@ -7419,7 +7584,7 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="A242" s="1">
         <v>23.505187034606902</v>
       </c>
       <c r="B242">
@@ -7430,7 +7595,7 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="A243" s="1">
         <v>23.722145557403501</v>
       </c>
       <c r="B243">
@@ -7441,7 +7606,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="A244" s="1">
         <v>23.940481185913001</v>
       </c>
       <c r="B244">
@@ -7452,7 +7617,7 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245">
+      <c r="A245" s="1">
         <v>24.009484052657999</v>
       </c>
       <c r="B245">
@@ -7463,7 +7628,7 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246">
+      <c r="A246" s="1">
         <v>24.081929445266699</v>
       </c>
       <c r="B246">
@@ -7474,7 +7639,7 @@
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247">
+      <c r="A247" s="1">
         <v>24.231355428695601</v>
       </c>
       <c r="B247">
@@ -7485,7 +7650,7 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="A248" s="1">
         <v>24.304499387741</v>
       </c>
       <c r="B248">
@@ -7496,7 +7661,7 @@
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="A249" s="1">
         <v>24.522100448608398</v>
       </c>
       <c r="B249">
@@ -7507,7 +7672,7 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="A250" s="1">
         <v>24.801436901092501</v>
       </c>
       <c r="B250">
@@ -7518,7 +7683,7 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251">
+      <c r="A251" s="1">
         <v>24.8743443489074</v>
       </c>
       <c r="B251">
@@ -7529,7 +7694,7 @@
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252">
+      <c r="A252" s="1">
         <v>24.946876287460299</v>
       </c>
       <c r="B252">
@@ -7540,7 +7705,7 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253">
+      <c r="A253" s="1">
         <v>25.019846677780102</v>
       </c>
       <c r="B253">
@@ -7551,7 +7716,7 @@
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254">
+      <c r="A254" s="1">
         <v>25.3107621669769</v>
       </c>
       <c r="B254">
@@ -7562,7 +7727,7 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255">
+      <c r="A255" s="1">
         <v>25.384499549865701</v>
       </c>
       <c r="B255">
@@ -7573,7 +7738,7 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="A256" s="1">
         <v>25.4519524574279</v>
       </c>
       <c r="B256">
@@ -7584,7 +7749,7 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257">
+      <c r="A257" s="1">
         <v>25.600734710693299</v>
       </c>
       <c r="B257">
@@ -7595,7 +7760,7 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258">
+      <c r="A258" s="1">
         <v>25.671859741210898</v>
       </c>
       <c r="B258">
@@ -7606,7 +7771,7 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259">
+      <c r="A259" s="1">
         <v>25.815863847732501</v>
       </c>
       <c r="B259">
@@ -7617,7 +7782,7 @@
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260">
+      <c r="A260" s="1">
         <v>25.888388633727999</v>
       </c>
       <c r="B260">
@@ -7628,7 +7793,7 @@
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261">
+      <c r="A261" s="1">
         <v>26.034586429595901</v>
       </c>
       <c r="B261">
@@ -7639,7 +7804,7 @@
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262">
+      <c r="A262" s="1">
         <v>26.398761272430399</v>
       </c>
       <c r="B262">
@@ -7650,7 +7815,7 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263">
+      <c r="A263" s="1">
         <v>26.4724056720733</v>
       </c>
       <c r="B263">
@@ -7661,7 +7826,7 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264">
+      <c r="A264" s="1">
         <v>26.545542955398499</v>
       </c>
       <c r="B264">
@@ -7672,7 +7837,7 @@
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265">
+      <c r="A265" s="1">
         <v>26.685634374618498</v>
       </c>
       <c r="B265">
@@ -7683,7 +7848,7 @@
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266">
+      <c r="A266" s="1">
         <v>26.759447097778299</v>
       </c>
       <c r="B266">
@@ -7694,7 +7859,7 @@
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267">
+      <c r="A267" s="1">
         <v>27.055108785629201</v>
       </c>
       <c r="B267">
@@ -7705,7 +7870,7 @@
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268">
+      <c r="A268" s="1">
         <v>27.274419069290101</v>
       </c>
       <c r="B268">
@@ -7716,7 +7881,7 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269">
+      <c r="A269" s="1">
         <v>27.488481283187799</v>
       </c>
       <c r="B269">
@@ -7727,7 +7892,7 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270">
+      <c r="A270" s="1">
         <v>27.638150691985999</v>
       </c>
       <c r="B270">
@@ -7738,7 +7903,7 @@
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271">
+      <c r="A271" s="1">
         <v>27.710568189620901</v>
       </c>
       <c r="B271">
@@ -7749,7 +7914,7 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272">
+      <c r="A272" s="1">
         <v>27.7825236320495</v>
       </c>
       <c r="B272">
@@ -7760,7 +7925,7 @@
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273">
+      <c r="A273" s="1">
         <v>27.9985334873199</v>
       </c>
       <c r="B273">
@@ -7771,7 +7936,7 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274">
+      <c r="A274" s="1">
         <v>28.1437647342681</v>
       </c>
       <c r="B274">
@@ -7782,7 +7947,7 @@
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275">
+      <c r="A275" s="1">
         <v>28.361364603042599</v>
       </c>
       <c r="B275">
@@ -7793,7 +7958,7 @@
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276">
+      <c r="A276" s="1">
         <v>28.434723615646298</v>
       </c>
       <c r="B276">
@@ -7804,7 +7969,7 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277">
+      <c r="A277" s="1">
         <v>28.507938385009702</v>
       </c>
       <c r="B277">
@@ -7815,7 +7980,7 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278">
+      <c r="A278" s="1">
         <v>28.649589300155601</v>
       </c>
       <c r="B278">
@@ -7826,7 +7991,7 @@
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279">
+      <c r="A279" s="1">
         <v>28.7267823219299</v>
       </c>
       <c r="B279">
@@ -7837,7 +8002,7 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280">
+      <c r="A280" s="1">
         <v>28.873186826705901</v>
       </c>
       <c r="B280">
@@ -7848,7 +8013,7 @@
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281">
+      <c r="A281" s="1">
         <v>28.945733785629201</v>
       </c>
       <c r="B281">
@@ -7859,7 +8024,7 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282">
+      <c r="A282" s="1">
         <v>29.0145409107208</v>
       </c>
       <c r="B282">
@@ -7870,7 +8035,7 @@
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283">
+      <c r="A283" s="1">
         <v>29.237425565719601</v>
       </c>
       <c r="B283">
@@ -7881,7 +8046,7 @@
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284">
+      <c r="A284" s="1">
         <v>29.383660793304401</v>
       </c>
       <c r="B284">
@@ -7892,7 +8057,7 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285">
+      <c r="A285" s="1">
         <v>29.529803037643401</v>
       </c>
       <c r="B285">
@@ -7903,7 +8068,7 @@
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286">
+      <c r="A286" s="1">
         <v>29.673896074295001</v>
       </c>
       <c r="B286">
@@ -7914,7 +8079,7 @@
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287">
+      <c r="A287" s="1">
         <v>29.7380516529083</v>
       </c>
       <c r="B287">
@@ -7925,7 +8090,7 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288">
+      <c r="A288" s="1">
         <v>29.8116147518157</v>
       </c>
       <c r="B288">
@@ -7936,7 +8101,7 @@
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289">
+      <c r="A289" s="1">
         <v>29.883767604827799</v>
       </c>
       <c r="B289">
@@ -7947,7 +8112,7 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290">
+      <c r="A290" s="1">
         <v>29.955884695053101</v>
       </c>
       <c r="B290">
